--- a/Supporting Documentation/Burndown Versions/Sprint 4-Burndown-Chart.xlsx
+++ b/Supporting Documentation/Burndown Versions/Sprint 4-Burndown-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Desktop/Computer Science/Semester 2/Software Engineering/Assignment/Project/Documentation/Burndown/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stephen/Desktop/Computer Science/Semester 2/Software Engineering/Assignment/Project/Workspace/DublinBikes/Supporting Documentation/Burndown Versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CD1388-A443-4E49-ACB4-9EED6153BD2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A02F2-FA2C-9940-AEB1-7521D8868DB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35240" yWindow="-1220" windowWidth="28800" windowHeight="16560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -3266,46 +3266,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -8843,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C2EBFE-EF5C-2649-A3DD-850A8C0ED5ED}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9544,59 +9544,59 @@
         <v>60</v>
       </c>
       <c r="D22" s="7">
-        <f>C22-SUM(D3:D20)</f>
+        <f t="shared" ref="D22:Q22" si="1">C22-SUM(D3:D20)</f>
         <v>58</v>
       </c>
       <c r="E22" s="7">
-        <f>D22-SUM(E3:E20)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="F22" s="7">
-        <f>E22-SUM(F3:F20)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G22" s="7">
-        <f>F22-SUM(G3:G20)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="H22" s="7">
-        <f>G22-SUM(H3:H20)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I22" s="7">
-        <f>H22-SUM(I3:I20)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J22" s="7">
-        <f>I22-SUM(J3:J20)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K22" s="7">
-        <f>J22-SUM(K3:K20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L22" s="7">
-        <f>K22-SUM(L3:L20)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="M22" s="7">
-        <f>L22-SUM(M3:M20)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="N22" s="7">
-        <f>M22-SUM(N3:N20)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O22" s="7">
-        <f>N22-SUM(O3:O20)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P22" s="7">
-        <f>O22-SUM(P3:P20)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q22" s="7">
-        <f>P22-SUM(Q3:Q20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9604,49 +9604,49 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7">
         <f>SUM(D23:Q23)</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
         <v>6</v>
       </c>
-      <c r="F23" s="7">
+      <c r="K23" s="7">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
         <v>2</v>
       </c>
-      <c r="G23" s="7">
-        <v>4</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -9655,62 +9655,62 @@
       </c>
       <c r="C24" s="9">
         <f>C23</f>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D24" s="9">
         <f>C23-D23</f>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9">
         <f>D24-E23</f>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F24" s="9">
         <f>E24-F23</f>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" ref="G24:Q24" si="1">F24-G23</f>
-        <v>0</v>
+        <f t="shared" ref="G24:Q24" si="2">F24-G23</f>
+        <v>33</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="M24" s="9">
         <f>L24-M23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
